--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="468" windowWidth="14808" windowHeight="7656" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Technogy" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Benifits" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Product landing new'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Product landing new'!$A$1:$I$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Technogy!$A$1:$I$8</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="301">
   <si>
     <t>Issue</t>
   </si>
@@ -92,9 +92,6 @@
     <t>http://chard.cisco.com:4502/content/en_ae/products/servers-unified-computing/technology.html</t>
   </si>
   <si>
-    <t>CISCO image is not displaying in the chard page tite</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/CH/fr/products/uc/technology.html</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>priyanka</t>
   </si>
   <si>
-    <t>Title in tha chard page is displaying as CISCO and in the WEB page it is displaying as Cisco Systems</t>
-  </si>
-  <si>
     <t>Able to see an Error message in WEB URL below tsil borderd componenet.</t>
   </si>
   <si>
@@ -153,11 +147,6 @@
   </si>
   <si>
     <t>Need to verify with shreya</t>
-  </si>
-  <si>
-    <t>1.Report saying "Unable to update index list component." which is no where related to page.
-2. Content in the Selective bar is not same.
-3 . Other locales also have the same issue,</t>
   </si>
   <si>
     <t>ARK1</t>
@@ -194,10 +183,6 @@
     <t>Need to check with chapa on 1st item</t>
   </si>
   <si>
-    <t>Hero component image is not migrated for the service unified computing index  the image src is displaying as '/c/ru_ru/products/servers-unified-computing/index/_jcr_content/content_parsys/overview/layout-overview/gd12v1/gd12v1-right/hero_large/heropanel_0/image.img.jpg/1450346542685.jpg  
-Note : same issue with the  es_mx and pt_br locals</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RU/products/uc/index.html</t>
   </si>
   <si>
@@ -210,173 +195,12 @@
     <t>surya</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">pdf size and pdf image is missing for the right list  components  for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Экономическое обоснование для виртуальных управляемых сервисов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hyper link </t>
-    </r>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RU/solutions/sp/index.html</t>
   </si>
   <si>
     <t>http://chard.cisco.com:4502/content/ru_ru/solutions/service-provider/index.html</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Text component content mismatch 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>same issue with the pt_br</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">content mismatch for the second spot light copmponet </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Экономия средств</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> extra link is displaying after the content 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>same issue with the pt_br (Gaste menos)</t>
-    </r>
-  </si>
-  <si>
-    <t>spotlight components images are not migrated and src is displaying as src="/c/ru_ru/solutions/service-provider/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/spotlight_large_v2_1/image.img.jpg/1450346576806.jpg"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. links are missing for the selectorbar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Приложения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> . Count mismatch 3 links are displaying in the chard page and 2 links are displaying in the web url for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Приложения</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> link  
-2.links are missing for the selectorbar 
-Рыночные тенденции . Count mismatch 5 links are displaying in the chard page and 4 links are displaying in the web url for the 
-Рыночные тенденции  link 
-Note : same issue with the es_mx and pt_br</t>
-    </r>
-  </si>
-  <si>
-    <t>mismatch in the title of the page 
-Note : same issue with the ru_ru</t>
-  </si>
-  <si>
     <t xml:space="preserve">content mismatch for the selector bar links </t>
   </si>
   <si>
@@ -408,12 +232,6 @@
   </si>
   <si>
     <t>PLN10</t>
-  </si>
-  <si>
-    <t>1.One of the image(INTEL) was not migrated at bottom of the page.
-2. PDF symbol is not displaying for one of the tail borderd list elements. ( on hold Due to migration from CSS)
-3.An Arrow symbol is not displaying in CTA element and Selective bars.
-4 . Other locales also have the same issue,</t>
   </si>
   <si>
     <t>heading of the page is not displaying 
@@ -469,9 +287,6 @@
     <t>TECH7</t>
   </si>
   <si>
-    <t>For de_de, hero component panel images are not migatred in chard page when compared with WEB URL</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DE/products/telepresence/index.html</t>
   </si>
   <si>
@@ -511,16 +326,7 @@
     <t>http://chard.cisco.com:4502/content/de_de/products/conferencing/index.html?cq_ck=1450353056792</t>
   </si>
   <si>
-    <t>For de_de, in report its mentioned as Custom Head title not set but when compared with chard page, But we are seeing the Actual title same as WEB URL.</t>
-  </si>
-  <si>
     <t>NEED to check with CHAPA.</t>
-  </si>
-  <si>
-    <t>For de_de, drawer component image source is displaying as "src="/c/de_de/products/collaboration-endpoints/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/drawers_container_0/drawerspanel_0/drawers-image.img.jpg/1450346943595.jpg"</t>
-  </si>
-  <si>
-    <t>For de_de, "isco IP-Telefon der Serie 7800"  subdrawer component image source is displaying as "src="/c/de_de/products/collaboration-endpoints/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/drawers_container_0/drawerspanel_0/drawers-image.img.jpg/1450346943595.jpg"</t>
   </si>
   <si>
     <t>For de_de, html blob component image not migrated in chard page when compared with WEB URL</t>
@@ -638,38 +444,22 @@
     <t>ARK7</t>
   </si>
   <si>
-    <t>Allignment issue for third image.</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/cisco/web/UK/solutions/sp/solutions-listing.html</t>
   </si>
   <si>
     <t>http://chard.cisco.com:4502/content/en_gb/solutions/service-provider/solutions-listing.html</t>
   </si>
   <si>
-    <t>Reports are not generated for ja_jp and zh_cn</t>
-  </si>
-  <si>
-    <t>mismatch in the title of the page 
-Note : same issue with es_mx</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/RU/solutions/sp/solutions-listing.html</t>
   </si>
   <si>
     <t>http://chard.cisco.com:4502/content/ru_ru/solutions/service-provider/solutions-listing.html</t>
   </si>
   <si>
-    <t xml:space="preserve">images are not alligned properly </t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/LA/soluciones/sp/solutions-listing.html</t>
   </si>
   <si>
     <t>http://chard.cisco.com:4502/content/es_mx/solutions/service-provider/solutions-listing.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mismatch in the url </t>
   </si>
   <si>
     <t>http://www.cisco.com/web/BR/solucoes/sp/index.html</t>
@@ -898,10 +688,6 @@
     <t>SL1</t>
   </si>
   <si>
-    <t>Fo de_de image path is showing as "/c/de_de/solutions/collaboration/service-listing/_jcr_content/content_parsys/services/layout-services/gd21v1/gd21v1-mid/spotlight_medium/image.img.jpg/1450348702268.jpg"
-Note - Same issue with All images</t>
-  </si>
-  <si>
     <t>http://www.cisco.com/web/DE/solutions/collaboration/services.html</t>
   </si>
   <si>
@@ -927,9 +713,6 @@
   </si>
   <si>
     <t>SL3</t>
-  </si>
-  <si>
-    <t>PDF image are missing in 1st grid element when compared with WEB URL</t>
   </si>
   <si>
     <t>http://www.cisco.com/web/DE/products/unified_computing/services.html</t>
@@ -1054,6 +837,258 @@
     <t>For spotlight images are not migrated in chard page when compared with WEB URL</t>
   </si>
   <si>
+    <t>http://www.cisco.com/web/LA/soluciones/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/es_mx/solutions/service-provider/index.html</t>
+  </si>
+  <si>
+    <t>18/12/15</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/uc/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/fr_fr/products/servers-unified-computing/index.html?cq_ck=1450444784002</t>
+  </si>
+  <si>
+    <t>Saroja</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/fr_fr/solutions/service-provider/index.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/solutions/sp/index.html</t>
+  </si>
+  <si>
+    <t>http://chard.cisco.com:4502/content/zh_cn/solutions/service-provider/index.html</t>
+  </si>
+  <si>
+    <t>PLN11</t>
+  </si>
+  <si>
+    <t>PLN12</t>
+  </si>
+  <si>
+    <t>PLN13</t>
+  </si>
+  <si>
+    <t>PLN14</t>
+  </si>
+  <si>
+    <t>PLN15</t>
+  </si>
+  <si>
+    <t>PLN16</t>
+  </si>
+  <si>
+    <t>PLN17</t>
+  </si>
+  <si>
+    <t>PLN18</t>
+  </si>
+  <si>
+    <t>Hero component image is not migrated for the service unified computing index  the image src is displaying as '/c/ru_ru/products/servers-unified-computing/index/_jcr_content/content_parsys/overview/layout-overview/gd12v1/gd12v1-right/hero_large/heropanel_0/image.img.jpg/1450346542685.jpg  - Surya
+Note : same issue with the  es_mx and pt_br locals</t>
+  </si>
+  <si>
+    <t>Need to add in outstanding list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. links are missing for the selectorbar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> . Count mismatch 3 links are displaying in the chard page and 2 links are displaying in the web url for the -to be retested</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> link   -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be retested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.links are missing for the selectorbar 
+Рыночные тенденции . Count mismatch 5 links are displaying in the chard page and 4 links are displaying in the web url for the 
+Рыночные тенденции  link</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -to be retested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Note : same issue with the es_mx and pt_br</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">content mismatch for the second spot light copmponet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Экономия средств</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> extra link is displaying after the content - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be restested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same issue with the pt_br (Gaste menos)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mismatch in the title of the page -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need to run on fresh livecopy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Note : same issue with the ru_ru</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">content under the </t>
     </r>
@@ -1076,39 +1111,239 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> link is not present in the chard page </t>
-    </r>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/LA/soluciones/sp/index.html</t>
-  </si>
-  <si>
-    <t>http://chard.cisco.com:4502/content/es_mx/solutions/service-provider/index.html</t>
-  </si>
-  <si>
-    <t>18/12/15</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/FR/products/uc/index.html</t>
-  </si>
-  <si>
-    <t>http://chard.cisco.com:4502/content/fr_fr/products/servers-unified-computing/index.html?cq_ck=1450444784002</t>
-  </si>
-  <si>
-    <t>Saroja</t>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/FR/solutions/sp/index.html</t>
-  </si>
-  <si>
-    <t>http://chard.cisco.com:4502/content/fr_fr/solutions/service-provider/index.html</t>
-  </si>
-  <si>
-    <t>1.One of the image(INTEL) was not migrated at bottom of the page.
-2. PDF symbol is not displaying for one of the tail borderd list elements. ( on hold Due to migration from CSS)
-3.An Arrow symbol is not displaying in CTA element and Selective bars.
-4. Selector bar icons are not being dispalyed
+      <t xml:space="preserve"> link is not present in the chard page - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed and need to checkin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.One of the image(INTEL) was not migrated at bottom of the page. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be Retested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. PDF symbol is not displaying for one of the tail borderd list elements. ( on hold Due to migration from CSS) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need to be added observations list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.An Arrow symbol is not displaying in CTA element and Selective bars. -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need to be added observations list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Selector bar icons are not being dispalyed-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>need to be added observations list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 5 . Other locales also have the same issue,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1.Extra contents are displaying for third and fourth selector bar.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.the content "扩大盈利，降低运营开支，提升灵活性，借此让服务供应商的业务部署就位，稳健成长。在思科，我们已帮助几十家跨国服务供应商捕捉到在物联网下催生的众多发展机遇。" is not displaying on chard page.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed and need to checkin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.pdf symbol is missing.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add it in observations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.meta title mismatch.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-should run on fresh live copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.image src is "src="/c/zh_cn/solutions/service-provider/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2_0/gd12v2-left/hero_large/heropanel_2/image.img.jpg/1450346349088.jpg" for all images.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.displaying extra link for second spot light component-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1123,7 +1358,800 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>close(added in outstanding items)</t>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.mismatch in the count of  right rail.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.UI is different when compared to cisco page.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UI is similar to en/us page -Needs to inform chapa and put it in observations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.video icons are missing in images -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video icons are coming from css. Put it in observations list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.cisco image is missing.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.image src is /c/zh_cn/products/servers-unified-computing/index/_jcr_content/content_parsys/overview/layout-overview/gd12v1/gd12v1-right/hero_large/heropanel_0/image.img.jpg/1450346326145.jpg for hero components.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getting extra comment as "TileBordered Component description element not found" in report -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed and need to checkin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.one link is missing for first selector bar -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.Extra contents are displaying for third and fourth selector bar-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.content is missing "Explore all the latest service provider technology news" under trending now.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed and need to checkin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.follow us images are not there on chard page.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.image src is "src="/c/en_gb/solutions/service-provider/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/spotlight_large_v2/image.img.jpg/1450346476177.jpg" for all images. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.mismatch in count of right rails and english content is migrated-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.video icons are missing in images</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Video icons are coming from css. Put it in observations list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.pdf symbol is missing in right panels.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Need to add in observations list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.intel image is not migrated.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.image src is /c/en_gb/products/servers-unified-computing/ for hero components.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>surya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.we are able to view the following comment in report"Could not migrate tilebordered node. Count mis match as Element Count is 1 and node count is 3" but we have only one both in cisco and chard page.--c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>losed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.not able to view the following content "Explore all the latest service provider technology news" above inspire tail.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.mismatch in count of right rail and english content is migrated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>added comments in report-closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.English content is migrated in selector bars in dropdown values for  links.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5.The text beside the link for fourth spot light component is not migrated.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6.able to view image src as "src="/c/ja_jp/solutions/service-provider/"-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7.follow us images are not there on chard page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New observations as of 18.12.2015 after the build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.image is not migrated for fourth spot light element.- update issue(QA)
+2.folow us images are not migrated.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.title mismatch in browser window.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to run on fresh livecopy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spotlight components images are not migrated and src is displaying as src="/c/ru_ru/solutions/service-provider/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/spotlight_large_v2_1/image.img.jpg/1450346576806.jpg" -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Text component content mismatch - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed and need to checkin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same issue with the pt_br -Need reports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pdf size and pdf image is missing for the right list  components  for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Экономическое обоснование для виртуальных управляемых сервисов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hyper link - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.Report saying "Unable to update index list component." which is no where related to page.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Content in the Selective bar is not same.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 . Other locales also have the same issue, - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.One of the image(INTEL) was not migrated at bottom of the page.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. PDF symbol is not displaying for one of the tail borderd list elements. ( on hold Due to migration from CSS) -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.An Arrow symbol is not displaying in CTA element and Selective bars.- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put it in general observations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.pdf size is missing for right rail component.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed(added in outstanding items)</t>
     </r>
     <r>
       <rPr>
@@ -1167,7 +2195,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-open</t>
+      <t>- UI is similar to en/us page -Needs to inform chapa and put it in observations</t>
     </r>
     <r>
       <rPr>
@@ -1189,7 +2217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>close</t>
+      <t>closed</t>
     </r>
     <r>
       <rPr>
@@ -1200,18 +2228,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-5..video icons are missing in images and images are missing from right rail components.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
+5..video icons are missing in images and images are missing from right rail components.- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video icons are coming from css and put it in observations, For image in tile bordered need to check with chapa as we are not having any property to set image path in tile bordered component.</t>
     </r>
     <r>
       <rPr>
@@ -1234,7 +2262,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>close</t>
+      <t>closed</t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +2273,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-7.content(2.05) is missing beside link for second right rail.-open
+7.content(2.05) is missing beside link for second right rail.-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed and need to checkin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 8.image src is /c/ja_jp/products/servers-unified-computing/index/_jcr_content/content_parsys/overview/layout-overview/gd12v1/gd12v1-right/hero_large/heropanel_0/image.img.jpg/1450438903110.jpg-</t>
     </r>
     <r>
@@ -1257,45 +2306,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in hero components
-9.dot is missing behind the link for first right rail.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.we are able to view the following comment in report"Could not migrate tilebordered node. Count mis match as Element Count is 1 and node count is 3" but we have only one both in cisco and chard page.--c</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lose</t>
+      <t>Surya</t>
     </r>
     <r>
       <rPr>
@@ -1306,18 +2317,82 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-2.not able to view the following content "Explore all the latest service provider technology news" above inspire tail.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
+9.dot is missing behind the link for first right rail.- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is coming from css. (tile bordered)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allignment issue for third image.- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Put it in obeservations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>images are not alligned properly -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Put it in obeservations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mismatch in the url - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mismatch in the title of the page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need to run on fresh livecopy</t>
     </r>
     <r>
       <rPr>
@@ -1328,18 +2403,88 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-3.mismatch in count of right rail and english content is migrated </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>added comments in report-close</t>
+Note : same issue with es_mx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For de_de, hero component panel images are not migatred in chard page when compared with WEB URL -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For de_de, in report its mentioned as Custom Head title not set but when compared with chard page, But we are seeing the Actual title same as WEB URL.- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For de_de, drawer component image source is displaying as "src="/c/de_de/products/collaboration-endpoints/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/drawers_container_0/drawerspanel_0/drawers-image.img.jpg/1450346943595.jpg" -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For de_de, "isco IP-Telefon der Serie 7800"  subdrawer component image source is displaying as "src="/c/de_de/products/collaboration-endpoints/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/drawers_container_0/drawerspanel_0/drawers-image.img.jpg/1450346943595.jpg"-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fo de_de image path is showing as "/c/de_de/solutions/collaboration/service-listing/_jcr_content/content_parsys/services/layout-services/gd21v1/gd21v1-mid/spotlight_medium/image.img.jpg/1450348702268.jpg"
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
     </r>
     <r>
       <rPr>
@@ -1350,540 +2495,88 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-4.English content is migrated in selector bars in dropdown values for  links.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5.The text beside the link for fourth spot light component is not migrated.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6.able to view image src as "src="/c/ja_jp/solutions/service-provider/"-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7.follow us images are not there on chard page.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>New observations as of 18.12.2015 after the build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.image is not migrated for fourth spot light element.
-2.folow us images are not migrated.
-3.title mismatch in browser window.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.video icons are missing in images</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.pdf symbol is missing in right panels.
-3.intel image is not migrated.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.image src is /c/en_gb/products/servers-unified-computing/ for hero components.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.one link is missing for first selector bar -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.Extra contents are displaying for third and fourth selector bar-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3.content is missing "Explore all the latest service provider technology news" under trending now.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.follow us images are not there on chard page.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5.image src is "src="/c/en_gb/solutions/service-provider/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2/gd12v2-left/spotlight_large_v2/image.img.jpg/1450346476177.jpg" for all images.
-6.mismatch in count of right rails and english content is migrated-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.pdf size is missing for right rail component.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.mismatch in the count of  right rail.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3.UI is different when compared to cisco page.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.video icons are missing in images -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5.cisco image is missing.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6.image src is /c/zh_cn/products/servers-unified-computing/index/_jcr_content/content_parsys/overview/layout-overview/gd12v1/gd12v1-right/hero_large/heropanel_0/image.img.jpg/1450346326145.jpg for hero components.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getting extra comment as "TileBordered Component description element not found" in report
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-1.Extra contents are displaying for third and fourth selector bar.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2.the content "扩大盈利，降低运营开支，提升灵活性，借此让服务供应商的业务部署就位，稳健成长。在思科，我们已帮助几十家跨国服务供应商捕捉到在物联网下催生的众多发展机遇。" is not displaying on chard page.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3.pdf symbol is missing.
-4.meta title mismatch.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5.image src is "src="/c/zh_cn/solutions/service-provider/index/_jcr_content/content_parsys/overview/layout-overview/gd12v2_0/gd12v2-left/hero_large/heropanel_2/image.img.jpg/1450346349088.jpg" for all images.-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>open</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6.displaying extra link for second spot light component-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>close</t>
-    </r>
-  </si>
-  <si>
-    <t>http://www.cisco.com/web/CN/solutions/sp/index.html</t>
-  </si>
-  <si>
-    <t>http://chard.cisco.com:4502/content/zh_cn/solutions/service-provider/index.html</t>
-  </si>
-  <si>
-    <t>PLN11</t>
-  </si>
-  <si>
-    <t>PLN12</t>
-  </si>
-  <si>
-    <t>PLN13</t>
-  </si>
-  <si>
-    <t>PLN14</t>
-  </si>
-  <si>
-    <t>PLN15</t>
-  </si>
-  <si>
-    <t>PLN16</t>
-  </si>
-  <si>
-    <t>PLN17</t>
-  </si>
-  <si>
-    <t>PLN18</t>
+Note - Same issue with All images</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CISCO image is not displaying in the chard page tite-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title in tha chard page is displaying as CISCO and in the WEB page it is displaying as Cisco Systems - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need to run on fresh livecopy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reports are not generated for ja_jp and zh_cn - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resolved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For de_de the content is displying below the image instead of beside the image in chard page when compare dwith WEB URL -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UI is similar to en/us page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PDF image are missing in 1st grid element when compared with WEB URL- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put it in the obsevations list</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1935,7 +2628,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1951,6 +2644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,7 +2737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2069,7 +2768,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2096,6 +2794,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2117,41 +2836,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2460,20 +3154,20 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
     <col min="2" max="2" width="51" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="51.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2504,7 +3198,7 @@
     </row>
     <row r="2" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -2519,7 +3213,7 @@
         <v>42355</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -2528,12 +3222,12 @@
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -2548,7 +3242,7 @@
         <v>42355</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>18</v>
@@ -2557,12 +3251,12 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -2577,27 +3271,27 @@
         <v>42355</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="4">
         <v>42355</v>
@@ -2606,24 +3300,24 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>42355</v>
@@ -2632,62 +3326,62 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="4">
         <v>42355</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4">
         <v>42355</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2718,34 +3412,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2764,18 +3459,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>285</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="4">
         <v>42355</v>
@@ -2784,27 +3479,27 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="4">
         <v>42355</v>
@@ -2813,439 +3508,461 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="24" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>278</v>
+      <c r="C19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="E19" s="4">
         <v>42356</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>281</v>
+      <c r="G19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="E20" s="4">
         <v>42356</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>279</v>
+      <c r="G20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I20">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="C15" r:id="rId8"/>
+    <hyperlink ref="D15" r:id="rId9"/>
+    <hyperlink ref="D16" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C12" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -3253,24 +3970,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="3"/>
+    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3296,371 +4013,371 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4">
         <v>42355</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E3" s="4">
         <v>42356</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4">
         <v>42355</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4">
         <v>42356</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>141</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="E6" s="4">
         <v>42355</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>49</v>
+      <c r="F6" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>144</v>
+      <c r="A7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E7" s="4">
         <v>42355</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>49</v>
+      <c r="F7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>146</v>
+      <c r="A8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="E8" s="4">
         <v>42355</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>49</v>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>169</v>
+      <c r="A9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="E9" s="11">
         <v>42356</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>219</v>
+      <c r="F9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>176</v>
+      <c r="A10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="E10" s="11">
         <v>42356</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>177</v>
+      <c r="F10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>176</v>
+      <c r="A11" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="E11" s="11">
         <v>42356</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>177</v>
+      <c r="F11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>176</v>
+      <c r="A12" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="E12" s="11">
         <v>42356</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>177</v>
+      <c r="F12" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>176</v>
+      <c r="A13" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="E13" s="11">
         <v>42356</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="E14" s="11">
         <v>42356</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>172</v>
+      <c r="F14" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>216</v>
+        <v>198</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="E15" s="11">
         <v>42356</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>172</v>
+      <c r="F15" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3676,17 +4393,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3715,115 +4432,115 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="E2" s="11">
         <v>42355</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>46</v>
+      <c r="F2" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="11">
         <v>42356</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>156</v>
+      <c r="F3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="E4" s="11">
         <v>42357</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>159</v>
+      <c r="F4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="E5" s="11">
         <v>42358</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>162</v>
+      <c r="F5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="E6" s="11">
         <v>42359</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>24</v>
+      <c r="F6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3835,20 +4552,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3"/>
-    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="16.28515625" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3"/>
+    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3874,18 +4591,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>96</v>
+    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E2" s="9">
         <v>42355</v>
@@ -3894,17 +4611,17 @@
         <v>11</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E3" s="9">
         <v>42355</v>
@@ -3913,17 +4630,17 @@
         <v>11</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E4" s="9">
         <v>42355</v>
@@ -3932,21 +4649,21 @@
         <v>11</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>292</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9">
         <v>42355</v>
@@ -3955,17 +4672,17 @@
         <v>11</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="27"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E6" s="9">
         <v>42355</v>
@@ -3974,17 +4691,17 @@
         <v>11</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="27"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E7" s="9">
         <v>42355</v>
@@ -3993,17 +4710,17 @@
         <v>11</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="27"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E8" s="9">
         <v>42355</v>
@@ -4012,17 +4729,17 @@
         <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="27"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E9" s="9">
         <v>42355</v>
@@ -4031,24 +4748,24 @@
         <v>11</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9">
         <v>42355</v>
@@ -4057,21 +4774,21 @@
         <v>11</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9">
         <v>42355</v>
@@ -4080,21 +4797,21 @@
         <v>11</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>114</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E12" s="9">
         <v>42355</v>
@@ -4103,17 +4820,17 @@
         <v>11</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="30"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E13" s="9">
         <v>42355</v>
@@ -4122,17 +4839,17 @@
         <v>11</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="30"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E14" s="9">
         <v>42355</v>
@@ -4141,17 +4858,17 @@
         <v>11</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="30"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E15" s="9">
         <v>42355</v>
@@ -4160,21 +4877,21 @@
         <v>11</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E16" s="9">
         <v>42355</v>
@@ -4183,21 +4900,21 @@
         <v>11</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>116</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E17" s="9">
         <v>42355</v>
@@ -4206,17 +4923,17 @@
         <v>11</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="30"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E18" s="9">
         <v>42355</v>
@@ -4225,21 +4942,21 @@
         <v>11</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E19" s="9">
         <v>42355</v>
@@ -4248,21 +4965,21 @@
         <v>11</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E20" s="9">
         <v>42355</v>
@@ -4271,21 +4988,21 @@
         <v>11</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E21" s="9">
         <v>42355</v>
@@ -4294,21 +5011,21 @@
         <v>11</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E22" s="9">
         <v>42355</v>
@@ -4317,21 +5034,21 @@
         <v>11</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E23" s="9">
         <v>42355</v>
@@ -4340,21 +5057,21 @@
         <v>11</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>126</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E24" s="9">
         <v>42355</v>
@@ -4363,17 +5080,17 @@
         <v>11</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="30"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E25" s="9">
         <v>42355</v>
@@ -4382,21 +5099,21 @@
         <v>11</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>207</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E26" s="9">
         <v>42356</v>
@@ -4405,21 +5122,21 @@
         <v>11</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>208</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E27" s="9">
         <v>42356</v>
@@ -4428,21 +5145,21 @@
         <v>11</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>184</v>
+      <c r="A28" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>186</v>
+        <v>165</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="E28" s="9">
         <v>42357</v>
@@ -4451,21 +5168,21 @@
         <v>11</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>187</v>
+      <c r="A29" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>189</v>
+        <v>168</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="E29" s="9">
         <v>42358</v>
@@ -4474,21 +5191,21 @@
         <v>11</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -4518,23 +5235,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4561,286 +5278,286 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>224</v>
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="E2" s="4">
         <v>42356</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>224</v>
+      <c r="G2" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="E3" s="4">
         <v>42356</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>228</v>
+      <c r="G3" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E4" s="4">
         <v>42356</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>230</v>
+      <c r="G4" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="E5" s="4">
         <v>42356</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>234</v>
+      <c r="G5" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="E6" s="4">
         <v>42356</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="C7" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>228</v>
+      <c r="G6" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27"/>
+      <c r="C7" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="4">
         <v>42356</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>99</v>
+      <c r="G7" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>228</v>
+      <c r="A8" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E8" s="4">
         <v>42356</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>99</v>
+      <c r="G8" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>228</v>
+      <c r="A9" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E9" s="4">
         <v>42356</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>228</v>
+      <c r="G9" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="E10" s="4">
         <v>42356</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>230</v>
+      <c r="G10" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="E11" s="4">
         <v>42356</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>99</v>
+      <c r="G11" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>244</v>
+      <c r="A12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="E12" s="4">
         <v>42356</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>99</v>
+      <c r="G12" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>244</v>
+      <c r="A13" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="E13" s="4">
         <v>42356</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>250</v>
+      <c r="G13" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="E14" s="4">
         <v>42356</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>99</v>
+      <c r="G14" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4863,17 +5580,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="67.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4901,54 +5618,54 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>253</v>
+      <c r="A2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="E2" s="4">
         <v>42356</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>256</v>
+      <c r="A3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="E3" s="4">
         <v>42356</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="G3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4963,19 +5680,19 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
-    <col min="2" max="2" width="52.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.109375" style="16"/>
+    <col min="2" max="2" width="52.109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5002,180 +5719,180 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>258</v>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="E2" s="4">
         <v>42356</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>261</v>
+      <c r="F2" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="E3" s="4">
         <v>42356</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>263</v>
+      <c r="F3" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="E4" s="4">
         <v>42356</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>99</v>
+      <c r="F4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>265</v>
+      <c r="A5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="E5" s="4">
         <v>42356</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>99</v>
+      <c r="F5" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>263</v>
+      <c r="A6" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="E6" s="4">
         <v>42356</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>99</v>
+      <c r="F6" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>263</v>
+      <c r="A7" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="E7" s="4">
         <v>42356</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>99</v>
+      <c r="F7" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>270</v>
+      <c r="A8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E8" s="4">
         <v>42356</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>99</v>
+      <c r="F8" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>270</v>
+      <c r="A9" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E9" s="4">
         <v>42356</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>99</v>
+      <c r="F9" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5195,11 +5912,11 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">

--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="468" windowWidth="14808" windowHeight="7656" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Technogy" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="304">
   <si>
     <t>Issue</t>
   </si>
@@ -2577,6 +2577,15 @@
       </rPr>
       <t>put it in the obsevations list</t>
     </r>
+  </si>
+  <si>
+    <t>url have /en/us hence they are not migrated and expcting the same image should exists in chard.</t>
+  </si>
+  <si>
+    <t>suryakanth</t>
+  </si>
+  <si>
+    <t>image is migrated propertly. Issue is with the component rendition, the image is being rendered with the content path instead of image path. OOTB functinlaity</t>
   </si>
 </sst>
 </file>
@@ -2806,14 +2815,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2836,6 +2845,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2844,9 +2856,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2858,6 +2867,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2906,7 +2918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2941,7 +2953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3157,20 +3169,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="51" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="51.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -3306,7 +3318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
@@ -3419,21 +3431,21 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3"/>
-    <col min="7" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -3621,7 +3633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -3647,7 +3659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +3711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -3725,11 +3737,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3748,11 +3760,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="26" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3771,7 +3783,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>263</v>
       </c>
@@ -3794,7 +3806,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>264</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>265</v>
       </c>
@@ -3840,7 +3852,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="24" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="24" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>266</v>
       </c>
@@ -3863,7 +3875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>267</v>
       </c>
@@ -3886,11 +3898,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>275</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3912,9 +3924,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="26"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7" t="s">
         <v>257</v>
       </c>
@@ -3974,20 +3986,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -4120,7 +4132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>132</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>197</v>
       </c>
@@ -4354,7 +4366,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>198</v>
       </c>
@@ -4397,16 +4409,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -4455,7 +4467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>144</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>145</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>146</v>
       </c>
@@ -4520,7 +4532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>147</v>
       </c>
@@ -4552,20 +4564,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="16.33203125" style="3"/>
+    <col min="1" max="1" width="16.28515625" style="3"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4591,7 +4601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>170</v>
       </c>
@@ -4613,8 +4623,14 @@
       <c r="G2" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="31"/>
       <c r="C3" s="8" t="s">
@@ -4632,8 +4648,14 @@
       <c r="G3" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="32"/>
       <c r="C4" s="10" t="s">
@@ -4651,8 +4673,14 @@
       <c r="G4" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>171</v>
       </c>
@@ -4675,7 +4703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="33"/>
       <c r="C6" s="8" t="s">
@@ -4694,7 +4722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
@@ -4713,7 +4741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="33"/>
       <c r="C8" s="8" t="s">
@@ -4732,7 +4760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="33"/>
       <c r="C9" s="8" t="s">
@@ -4754,7 +4782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>172</v>
       </c>
@@ -4776,8 +4804,14 @@
       <c r="G10" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>173</v>
       </c>
@@ -4799,12 +4833,18 @@
       <c r="G11" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H11" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="36" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4823,9 +4863,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
@@ -4842,9 +4882,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
       </c>
@@ -4861,9 +4901,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
@@ -4903,11 +4943,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -4926,9 +4966,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
@@ -5060,11 +5100,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -5083,9 +5123,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="10" t="s">
         <v>105</v>
       </c>
@@ -5196,16 +5236,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -5235,18 +5275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5278,7 +5318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -5301,11 +5341,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -5324,9 +5364,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>206</v>
       </c>
@@ -5343,9 +5383,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
         <v>208</v>
       </c>
@@ -5362,8 +5402,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5385,8 +5425,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
       <c r="C7" s="16" t="s">
         <v>206</v>
       </c>
@@ -5449,11 +5489,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -5472,9 +5512,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="16" t="s">
         <v>208</v>
       </c>
@@ -5537,7 +5577,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>225</v>
       </c>
@@ -5580,12 +5620,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5680,14 +5720,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="16"/>
-    <col min="2" max="2" width="52.109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="52.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5719,11 +5759,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -5742,9 +5782,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="16" t="s">
         <v>238</v>
       </c>
@@ -5761,9 +5801,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>240</v>
       </c>
@@ -5912,11 +5952,11 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">

--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="309">
   <si>
     <t>Issue</t>
   </si>
@@ -2586,6 +2586,21 @@
   </si>
   <si>
     <t>image is migrated propertly. Issue is with the component rendition, the image is being rendered with the content path instead of image path. OOTB functinlaity</t>
+  </si>
+  <si>
+    <t>Re-test</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>no code written to migrate the dam. Updated the code.</t>
+  </si>
+  <si>
+    <t>Not an issue since no html blob found on web publisher to migrate.</t>
+  </si>
+  <si>
+    <t>Not an issue since no html blob found on WEM publisher to migrate.</t>
   </si>
 </sst>
 </file>
@@ -2824,6 +2839,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2844,9 +2862,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4602,10 +4617,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4618,7 +4633,7 @@
         <v>42355</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>87</v>
@@ -4631,8 +4646,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
@@ -4643,7 +4658,7 @@
         <v>42355</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>87</v>
@@ -4656,8 +4671,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="10" t="s">
         <v>88</v>
       </c>
@@ -4668,7 +4683,7 @@
         <v>42355</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>87</v>
@@ -4681,10 +4696,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>292</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4704,8 +4719,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>90</v>
       </c>
@@ -4723,8 +4738,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10" t="s">
         <v>92</v>
       </c>
@@ -4742,8 +4757,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="8" t="s">
         <v>94</v>
       </c>
@@ -4761,8 +4776,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
@@ -4799,7 +4814,7 @@
         <v>42355</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>87</v>
@@ -4828,7 +4843,7 @@
         <v>42355</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>87</v>
@@ -4840,11 +4855,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4857,15 +4872,21 @@
         <v>42355</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="36"/>
+      <c r="H12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
@@ -4876,15 +4897,21 @@
         <v>42355</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="36"/>
+      <c r="H13" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
       </c>
@@ -4895,15 +4922,21 @@
         <v>42355</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="36"/>
+      <c r="H14" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
@@ -4914,10 +4947,16 @@
         <v>42355</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>87</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4944,10 +4983,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -4967,8 +5006,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
@@ -5101,10 +5140,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="29" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -5124,8 +5163,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="10" t="s">
         <v>105</v>
       </c>
@@ -5236,16 +5275,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="468" windowWidth="14808" windowHeight="7656" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Technogy" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="309">
   <si>
     <t>Issue</t>
   </si>
@@ -2577,6 +2577,30 @@
       </rPr>
       <t>put it in the obsevations list</t>
     </r>
+  </si>
+  <si>
+    <t>url have /en/us hence they are not migrated and expcting the same image should exists in chard.</t>
+  </si>
+  <si>
+    <t>suryakanth</t>
+  </si>
+  <si>
+    <t>image is migrated propertly. Issue is with the component rendition, the image is being rendered with the content path instead of image path. OOTB functinlaity</t>
+  </si>
+  <si>
+    <t>Re-test</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>no code written to migrate the dam. Updated the code.</t>
+  </si>
+  <si>
+    <t>Not an issue since no html blob found on web publisher to migrate.</t>
+  </si>
+  <si>
+    <t>Not an issue since no html blob found on WEM publisher to migrate.</t>
   </si>
 </sst>
 </file>
@@ -2806,6 +2830,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2845,9 +2872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2858,6 +2882,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2906,7 +2933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2941,7 +2968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3157,20 +3184,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="51" style="3" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="51.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +3252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>79</v>
       </c>
@@ -3280,7 +3307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -3306,7 +3333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
@@ -3419,21 +3446,21 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3"/>
-    <col min="7" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3459,7 +3486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3488,7 +3515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
@@ -3540,7 +3567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -3569,7 +3596,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -3595,7 +3622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -3621,7 +3648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -3647,7 +3674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -3673,7 +3700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -3699,7 +3726,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -3725,11 +3752,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="26" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3748,11 +3775,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="26" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3771,7 +3798,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>263</v>
       </c>
@@ -3794,7 +3821,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>264</v>
       </c>
@@ -3817,7 +3844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>265</v>
       </c>
@@ -3840,7 +3867,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="24" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="24" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>266</v>
       </c>
@@ -3863,7 +3890,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>267</v>
       </c>
@@ -3886,11 +3913,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>275</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3912,9 +3939,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="26"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7" t="s">
         <v>257</v>
       </c>
@@ -3974,20 +4001,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="11.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -4120,7 +4147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>132</v>
       </c>
@@ -4328,7 +4355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>197</v>
       </c>
@@ -4354,7 +4381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>198</v>
       </c>
@@ -4397,16 +4424,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4432,7 +4459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -4455,7 +4482,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>144</v>
       </c>
@@ -4474,7 +4501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>145</v>
       </c>
@@ -4497,7 +4524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>146</v>
       </c>
@@ -4520,7 +4547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>147</v>
       </c>
@@ -4552,20 +4579,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3"/>
-    <col min="2" max="2" width="33.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.33203125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="16.33203125" style="3"/>
+    <col min="1" max="1" width="16.28515625" style="3"/>
+    <col min="2" max="2" width="33.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="16.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4591,11 +4616,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4608,15 +4633,21 @@
         <v>42355</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31"/>
+      <c r="H2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
@@ -4627,15 +4658,21 @@
         <v>42355</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
+      <c r="H3" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="10" t="s">
         <v>88</v>
       </c>
@@ -4646,17 +4683,23 @@
         <v>42355</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="H4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>292</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4675,9 +4718,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33"/>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="8" t="s">
         <v>90</v>
       </c>
@@ -4694,9 +4737,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33"/>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="10" t="s">
         <v>92</v>
       </c>
@@ -4713,9 +4756,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="8" t="s">
         <v>94</v>
       </c>
@@ -4732,9 +4775,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
@@ -4754,7 +4797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>172</v>
       </c>
@@ -4771,13 +4814,19 @@
         <v>42355</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>173</v>
       </c>
@@ -4794,17 +4843,23 @@
         <v>42355</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="H11" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4817,15 +4872,21 @@
         <v>42355</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28"/>
+      <c r="H12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
@@ -4836,15 +4897,21 @@
         <v>42355</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28"/>
+      <c r="H13" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
       </c>
@@ -4855,15 +4922,21 @@
         <v>42355</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="28"/>
+      <c r="H14" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
@@ -4874,10 +4947,16 @@
         <v>42355</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>87</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4903,11 +4982,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -4926,9 +5005,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
@@ -5060,11 +5139,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -5083,9 +5162,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="28"/>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="10" t="s">
         <v>105</v>
       </c>
@@ -5235,18 +5314,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5278,7 +5357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>201</v>
       </c>
@@ -5301,11 +5380,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -5324,9 +5403,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>206</v>
       </c>
@@ -5343,9 +5422,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="16" t="s">
         <v>208</v>
       </c>
@@ -5362,8 +5441,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5385,8 +5464,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
       <c r="C7" s="16" t="s">
         <v>206</v>
       </c>
@@ -5449,11 +5528,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -5472,9 +5551,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="16" t="s">
         <v>208</v>
       </c>
@@ -5537,7 +5616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>225</v>
       </c>
@@ -5580,12 +5659,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="67.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5680,14 +5759,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="16"/>
-    <col min="2" max="2" width="52.109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="52.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5719,11 +5798,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -5742,9 +5821,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="16" t="s">
         <v>238</v>
       </c>
@@ -5761,9 +5840,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16" t="s">
         <v>240</v>
       </c>
@@ -5912,11 +5991,11 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">

--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="311">
   <si>
     <t>Issue</t>
   </si>
@@ -2601,6 +2601,12 @@
   </si>
   <si>
     <t>Not an issue since no html blob found on WEM publisher to migrate.</t>
+  </si>
+  <si>
+    <t>Image are being rendered from css. Need to update css. Tested by updating css file in firebug, working fine.</t>
+  </si>
+  <si>
+    <t>url have /c/dam hence they are not migrated and expcting the same image should exists in chard.</t>
   </si>
 </sst>
 </file>
@@ -4616,7 +4622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>170</v>
       </c>
@@ -4976,20 +4982,26 @@
         <v>42355</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4999,13 +5011,19 @@
         <v>42355</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="29"/>
       <c r="C18" s="10" t="s">
@@ -5018,13 +5036,19 @@
         <v>42355</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>181</v>
       </c>
@@ -5041,13 +5065,19 @@
         <v>42355</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>182</v>
       </c>
@@ -5069,8 +5099,9 @@
       <c r="G20" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>183</v>
       </c>
@@ -5087,13 +5118,19 @@
         <v>42355</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>184</v>
       </c>
@@ -5110,13 +5147,19 @@
         <v>42355</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="H22" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>185</v>
       </c>
@@ -5133,20 +5176,26 @@
         <v>42355</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>186</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -5156,13 +5205,19 @@
         <v>42355</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="29"/>
       <c r="C25" s="10" t="s">
@@ -5175,13 +5230,19 @@
         <v>42355</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H25" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>187</v>
       </c>
@@ -5204,7 +5265,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>188</v>
       </c>
@@ -5227,7 +5288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>189</v>
       </c>
@@ -5244,13 +5305,19 @@
         <v>42357</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>190</v>
       </c>
@@ -5267,10 +5334,16 @@
         <v>42358</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>87</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5304,9 +5377,11 @@
     <hyperlink ref="D27" r:id="rId15"/>
     <hyperlink ref="C26" r:id="rId16"/>
     <hyperlink ref="D26" r:id="rId17"/>
+    <hyperlink ref="C17" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Technogy" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="311">
   <si>
     <t>Issue</t>
   </si>
@@ -2767,7 +2767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2822,9 +2822,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2843,10 +2840,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2869,14 +2875,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3762,7 +3771,7 @@
       <c r="A12" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3785,7 +3794,7 @@
       <c r="A13" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>280</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -3808,7 +3817,7 @@
       <c r="A14" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3831,7 +3840,7 @@
       <c r="A15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>278</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3854,7 +3863,7 @@
       <c r="A16" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>277</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3873,11 +3882,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="24" customFormat="1" ht="300" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:8" s="23" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3886,13 +3895,13 @@
       <c r="D17" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3920,10 +3929,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="30" t="s">
         <v>275</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3946,8 +3955,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7" t="s">
         <v>257</v>
       </c>
@@ -4585,7 +4594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4623,10 +4634,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4652,8 +4663,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
@@ -4672,13 +4683,13 @@
       <c r="H3" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="10" t="s">
         <v>88</v>
       </c>
@@ -4697,15 +4708,15 @@
       <c r="H4" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>292</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4725,8 +4736,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8" t="s">
         <v>90</v>
       </c>
@@ -4744,8 +4755,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="10" t="s">
         <v>92</v>
       </c>
@@ -4763,8 +4774,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8" t="s">
         <v>94</v>
       </c>
@@ -4782,8 +4793,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
@@ -4854,18 +4865,18 @@
       <c r="G11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="39" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4891,8 +4902,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
@@ -4908,7 +4919,7 @@
       <c r="G13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>302</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -4916,8 +4927,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
       </c>
@@ -4941,8 +4952,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
@@ -4958,10 +4969,10 @@
       <c r="G15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4990,15 +5001,15 @@
       <c r="H16" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="39" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -5024,8 +5035,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
@@ -5044,7 +5055,7 @@
       <c r="H18" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5073,7 +5084,7 @@
       <c r="H19" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5099,7 +5110,7 @@
       <c r="G20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -5126,7 +5137,7 @@
       <c r="H21" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5152,10 +5163,10 @@
       <c r="G22" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5181,18 +5192,18 @@
       <c r="G23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -5210,16 +5221,16 @@
       <c r="G24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="10" t="s">
         <v>105</v>
       </c>
@@ -5235,10 +5246,10 @@
       <c r="G25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="24" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5313,7 +5324,7 @@
       <c r="H28" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="24" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5339,25 +5350,25 @@
       <c r="G29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="24" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -5389,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,318 +5411,364 @@
     <col min="3" max="3" width="41.140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="58.28515625" style="16" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="6" max="7" width="9.140625" style="16"/>
+    <col min="8" max="8" width="10.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="56.28515625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="29">
         <v>42356</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="29">
         <v>42356</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G4" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="16" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E7" s="29">
         <v>42356</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G7" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="16" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D11" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E11" s="29">
         <v>42356</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G11" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="C7" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="27" t="s">
         <v>219</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="29">
         <v>42356</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>87</v>
       </c>
+      <c r="H12" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="27" t="s">
         <v>223</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="29">
         <v>42356</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>87</v>
       </c>
+      <c r="H13" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="29">
         <v>42356</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>87</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5731,7 +5788,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5740,6 +5797,8 @@
     <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="67.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5803,7 +5862,7 @@
       <c r="B3" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="5" t="s">
         <v>233</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -5813,15 +5872,22 @@
         <v>42356</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5830,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,219 +5907,245 @@
     <col min="3" max="3" width="53.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="53.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="6" max="7" width="9.140625" style="16"/>
+    <col min="8" max="8" width="11.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="29">
         <v>42356</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="27" t="s">
         <v>87</v>
       </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="29">
         <v>42356</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="27" t="s">
         <v>87</v>
       </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="29">
         <v>42356</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="27" t="s">
         <v>87</v>
       </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="29">
         <v>42356</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="29">
+        <v>42356</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D7" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="29">
         <v>42356</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F7" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G7" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="29">
         <v>42356</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F8" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G8" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="29">
         <v>42356</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F9" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G9" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42356</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/QA/Issue tracker_Updated 18_12.xlsx
+++ b/docs/QA/Issue tracker_Updated 18_12.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="311">
   <si>
     <t>Issue</t>
   </si>
@@ -2848,6 +2848,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2883,9 +2886,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3929,10 +3929,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>275</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3955,8 +3955,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="7" t="s">
         <v>257</v>
       </c>
@@ -4594,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,10 +4634,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4663,8 +4663,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="8" t="s">
         <v>88</v>
       </c>
@@ -4688,8 +4688,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="10" t="s">
         <v>88</v>
       </c>
@@ -4713,10 +4713,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>292</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -4736,8 +4736,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="8" t="s">
         <v>90</v>
       </c>
@@ -4755,8 +4755,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="10" t="s">
         <v>92</v>
       </c>
@@ -4774,8 +4774,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="8" t="s">
         <v>94</v>
       </c>
@@ -4793,8 +4793,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
@@ -4873,10 +4873,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4902,8 +4902,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="8" t="s">
         <v>90</v>
       </c>
@@ -4927,8 +4927,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
       </c>
@@ -4952,8 +4952,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="10" t="s">
         <v>94</v>
       </c>
@@ -5006,10 +5006,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -5035,8 +5035,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10" t="s">
         <v>92</v>
       </c>
@@ -5200,10 +5200,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="40" t="s">
         <v>111</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -5229,8 +5229,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="10" t="s">
         <v>105</v>
       </c>
@@ -5400,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,10 +5476,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -5501,8 +5501,8 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="27" t="s">
         <v>206</v>
       </c>
@@ -5522,8 +5522,8 @@
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="27" t="s">
         <v>208</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -5568,7 +5568,7 @@
       <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
         <v>206</v>
@@ -5639,10 +5639,10 @@
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>218</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -5664,8 +5664,8 @@
       <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="27" t="s">
         <v>208</v>
       </c>
@@ -5897,7 +5897,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,10 +5943,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -5968,8 +5968,8 @@
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="27" t="s">
         <v>238</v>
       </c>
@@ -5989,8 +5989,8 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="27" t="s">
         <v>240</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="B5" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="30" t="s">
         <v>238</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -6080,13 +6080,17 @@
         <v>42356</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -6095,7 +6099,7 @@
       <c r="B8" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>247</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -6113,7 +6117,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>249</v>
       </c>
@@ -6130,13 +6134,17 @@
         <v>42356</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="H9" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6145,6 +6153,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
